--- a/data/sam/classifications.xlsx
+++ b/data/sam/classifications.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\geo-ccdr24\data\sam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94008FB-7264-4128-B64E-ABBEF316152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20666AB8-6319-489B-A791-7344A069AD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F5576112-B943-4FB6-B229-6BC3D24B6762}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F5576112-B943-4FB6-B229-6BC3D24B6762}"/>
   </bookViews>
   <sheets>
-    <sheet name="SAM Correspondence" sheetId="1" r:id="rId1"/>
-    <sheet name="SAM factors" sheetId="2" r:id="rId2"/>
-    <sheet name="COICOP" sheetId="3" r:id="rId3"/>
+    <sheet name="SAM-REV1" sheetId="1" r:id="rId1"/>
+    <sheet name="SAM-REV2" sheetId="4" r:id="rId2"/>
+    <sheet name="SAM factors" sheetId="2" r:id="rId3"/>
+    <sheet name="COICOP" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1909">
   <si>
     <t>rev2_correspondence</t>
   </si>
@@ -5507,6 +5508,264 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Crop and animal production, hunting and related service activities</t>
+  </si>
+  <si>
+    <t>Forestry and logging</t>
+  </si>
+  <si>
+    <t>Fishing and aquaculture</t>
+  </si>
+  <si>
+    <t>Mining of coal and lignite</t>
+  </si>
+  <si>
+    <t>Extraction of crude petroleum and natural gas</t>
+  </si>
+  <si>
+    <t>Mining support service activities</t>
+  </si>
+  <si>
+    <t>Manufacture of food products</t>
+  </si>
+  <si>
+    <t>Manufacture of beverages</t>
+  </si>
+  <si>
+    <t>Manufacture of wearing apparel</t>
+  </si>
+  <si>
+    <t>Manufacture of leather and related products</t>
+  </si>
+  <si>
+    <t>Manufacture of paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and reproduction of recorded media</t>
+  </si>
+  <si>
+    <t>Manufacture of coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Manufacture of computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Manufacture of electrical equipment</t>
+  </si>
+  <si>
+    <t>Manufacture of furniture</t>
+  </si>
+  <si>
+    <t>Other manufacturing</t>
+  </si>
+  <si>
+    <t>Repair and installation of machinery and equipment</t>
+  </si>
+  <si>
+    <t>Electricity, gas, steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Water collection, treatment and supply</t>
+  </si>
+  <si>
+    <t>Sewerage</t>
+  </si>
+  <si>
+    <t>Waste collection, treatment and disposal activities; materials recovery</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Remediation activities and other waste management services</t>
+  </si>
+  <si>
+    <t>Construction of buildings</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Civil engineering</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Specialised construction activities</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Wholesale trade, except of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Retail trade, except of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Land transport and transport via pipelines</t>
+  </si>
+  <si>
+    <t>Warehousing and support activities for transportation</t>
+  </si>
+  <si>
+    <t>Postal and courier activities</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Food and beverage service activities</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Publishing activities</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Motion picture, video and television programme production, sound recording and music publishing activities</t>
+  </si>
+  <si>
+    <t>Programming and broadcasting activities</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Computer programming, consultancy and related activities</t>
+  </si>
+  <si>
+    <t>Information service activities</t>
+  </si>
+  <si>
+    <t>Financial service activities, except insurance and pension funding</t>
+  </si>
+  <si>
+    <t>Insurance, reinsurance and pension funding, except compulsory social security</t>
+  </si>
+  <si>
+    <t>Activities auxiliary to financial services and insurance activities</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Legal and accounting activities</t>
+  </si>
+  <si>
+    <t>Activities of head offices; management consultancy activities</t>
+  </si>
+  <si>
+    <t>Architectural and engineering activities; technical testing and analysis</t>
+  </si>
+  <si>
+    <t>Scientific research and development</t>
+  </si>
+  <si>
+    <t>Advertising and market research</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical activities</t>
+  </si>
+  <si>
+    <t>Veterinary activities</t>
+  </si>
+  <si>
+    <t>Rental and leasing activities</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Employment activities</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Travel agency, tour operator and other reservation service and related activities</t>
+  </si>
+  <si>
+    <t>Security and investigation activities</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Services to buildings and landscape activities</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Office administrative, office support and other business support activities</t>
+  </si>
+  <si>
+    <t>Human health activities</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Residential care activities</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Social work activities without accommodation</t>
+  </si>
+  <si>
+    <t>Creative, arts and entertainment activities</t>
+  </si>
+  <si>
+    <t>Libraries, archives, museums and other cultural activities</t>
+  </si>
+  <si>
+    <t>Gambling and betting activities</t>
+  </si>
+  <si>
+    <t>Sports activities and amusement and recreation activities</t>
+  </si>
+  <si>
+    <t>Activities of membership organisations</t>
+  </si>
+  <si>
+    <t>Repair of computers and personal and household goods</t>
+  </si>
+  <si>
+    <t>Other personal service activities</t>
+  </si>
+  <si>
+    <t>Activities of households as employers of domestic personnel</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Undifferentiated goods- and services-producing activities of private households for own use</t>
+  </si>
+  <si>
+    <t>Activities of extraterritorial organisations and bodies</t>
+  </si>
+  <si>
+    <t>rev2_2d</t>
+  </si>
+  <si>
+    <t>rev2_2d_description</t>
   </si>
 </sst>
 </file>
@@ -5551,19 +5810,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{ECF20579-14CF-4551-91CF-2FB7021430F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5898,7 +6160,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6953,6 +7215,1272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4F503-825B-40A4-9FEE-CD076030F5C4}">
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF38410-3964-43D9-B97F-1E0970CD242F}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -7391,11 +8919,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D1D6A3-4EB7-49F7-BC14-BCED466BFCF2}">
   <dimension ref="A1:B872"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/data/sam/classifications.xlsx
+++ b/data/sam/classifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\geo-ccdr24\data\sam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20666AB8-6319-489B-A791-7344A069AD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08224B5D-9CD0-41D1-AD6A-5D763B2E55F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F5576112-B943-4FB6-B229-6BC3D24B6762}"/>
   </bookViews>
@@ -7219,7 +7219,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
